--- a/src/test/java/com/test/datas/Login.xlsx
+++ b/src/test/java/com/test/datas/Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea project\WebDriver-projects\08_138enviroment\src\test\java\com\test\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea project\enviroment\07_137enviroment\src\test\java\com\test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2797CB-FDB1-4EA2-BE68-91DF2F8DBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596BB5F2-986F-4FD3-B3FE-53FF93292344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,7 @@
   </si>
   <si>
     <t>jl.xu@rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -142,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +430,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -458,8 +459,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7B7B1795-1A31-4CC3-8D21-A2385D6D39F9}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{2A204E57-6C83-45B7-AEA6-B020827A71F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>